--- a/Output_testing/R1_201907/Country/HKD/MN/GREECE_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/GREECE_201907_HKD_MN.xlsx
@@ -810,136 +810,443 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>467.583729</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>40.86655306051294</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>510.274111</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>44.66576424990677</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>703.63958</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>50.11847555561031</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>330.540226</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>49.4765571980201</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-8.368085763243716</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>127.937571</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>11.18167123754779</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>129.728262</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>11.35548882871336</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>166.094551</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>11.83049665030721</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>58.499711</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>8.756466141458818</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>-33.68517508214832</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>52.892514</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>4.622775763621415</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>46.920347</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>4.107073262091912</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>52.994928</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>3.774695282973321</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>29.365846</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>4.39559498361101</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>4.777274337250659</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>71.945858</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>6.288027236809881</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>64.23507499999999</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>5.6226813288693</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>57.764099</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>4.114391324779305</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>26.955788</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>4.034848051443227</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-20.43501221126731</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>MOTORCYCLES (INCLUDING MOPEDS) AND CYCLES, MOTORIZED AND NON-MOTORIZED; INVALID CARRIAGES</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D22" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E22" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F22" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>3.187792</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>0.2270583974658875</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>26.167869</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>3.91690924580174</v>
+      </c>
+      <c r="K22" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>65.375899</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>5.713816541640685</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>50.356354</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>4.407836862115174</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>49.589879</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>3.532162216439236</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>24.467821</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>3.662439394645471</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>38.24171278147435</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>848</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL AND CLOTHING ACCESSORIES OF OTHER THAN TEXTILE FABRICS; HEADGEAR OF ALL MATERIALS</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>34.619012</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>3.025682039505986</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>22.455454</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>1.96559063622302</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>40.194244</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>2.862934793108478</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>14.550482</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>2.177973203575415</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>-63.21792875212602</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>24.90513</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>2.176694254953369</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>15.485539</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>1.355493879360729</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>24.000399</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>1.709487989016186</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>12.780246</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>1.912997337346068</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>4.419652380759009</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>30.206271</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>2.640010975620868</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>34.317707</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>3.003927844693997</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>37.425504</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>2.665724414451495</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>12.209863</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>1.827620173223604</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>-42.03086897984294</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>11.007091</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0.9620135186384864</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>11.850531</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>1.037311148011999</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>13.753257</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0.9796098661256754</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>9.581982</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>1.434268640251365</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>23.45185008057498</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>257.674145</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>22.52057431828387</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>256.804427</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>22.47883196001373</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>255.308246</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>18.18496350972289</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>122.954593</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>18.40432563062319</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-19.58994075886746</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1278,537 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>2.083445</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>50.19032355124161</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>1.636575</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>42.3384937448486</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>2.483899</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>62.18996702846308</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>1.71186</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>66.94686010364316</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>33.11208378660202</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>WORKS OF ART, COLLECTORS' PIECES AND ANTIQUES</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>1.492218</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>35.94762723709369</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>1.515993</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>39.21901541190246</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>1.12088</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>28.06373779403418</v>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>17.89614019005547</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>-31.67961325942106</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>4.64323207571478</v>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>4.718667838743171</v>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>7.342661034640403</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>-0.3772563751551994</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>4.768844994650801</v>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>0.6805151477678948</v>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>2.615314626678527</v>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>4.603833412265653</v>
+      </c>
+      <c r="K34" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>598</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS CHEMICAL PRODUCTS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>1.311049103158387</v>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>0.1971682384626536</v>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>1.645533532287099</v>
+      </c>
+      <c r="K35" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>0.1548991120161481</v>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>0.5437912338369568</v>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>1.024248313303961</v>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>0.4213069549475703</v>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>-61.330270289673</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="n">
+        <v>0.4179436951197145</v>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>697</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>HOUSEHOLD EQUIPMENT OF BASE METAL, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>0.3632173607550368</v>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="n">
+        <v>0.3660478138224504</v>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>2.873559203380125</v>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>1.461096161020154</v>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="n">
+        <v>0.8239504202625354</v>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="n">
+        <v>0.359673263218491</v>
+      </c>
+      <c r="K39" s="9" t="n">
+        <v>-50.24614552339735</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>551</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>ESSENTIAL OILS, PERFUME AND FLAVOUR MATERIALS</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>2.410283181112233</v>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>8.779822499504586</v>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="n">
+        <v>0.3669457400518922</v>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>3.65446272050539</v>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>0.659767261491147</v>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1840,443 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>467.583729</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>41.01535793873904</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>510.274111</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>44.81740588519178</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>703.63958</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>50.26146247822724</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>330.540226</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>49.66665543931155</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-8.368085763243716</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>127.937571</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>11.22238637259732</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>129.728262</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>11.39404106048112</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>166.094551</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>11.86424880039366</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>58.499711</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>8.790110131818887</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>-33.68517508214832</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>52.892514</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>4.639608394050353</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>46.920347</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>4.121016901390555</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>52.994928</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>3.785464406661653</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>29.365846</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>4.412483686526812</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>4.777274337250659</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>71.945858</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>6.310923445498445</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>64.23507499999999</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>5.641770503894397</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>57.764099</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>4.126129593899627</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>26.955788</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>4.050350696774586</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>-20.43501221126731</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>MOTORCYCLES (INCLUDING MOPEDS) AND CYCLES, MOTORIZED AND NON-MOTORIZED; INVALID CARRIAGES</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D48" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E48" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F48" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>3.187792</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>0.2277061901440976</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>26.167869</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>3.931958748052778</v>
+      </c>
+      <c r="K48" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>65.375899</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>5.734621912072248</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>50.356354</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>4.422801603031749</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>49.589879</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>3.542239398554484</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>24.467821</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>3.67651117585232</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>38.24171278147435</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>848</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL AND CLOTHING ACCESSORIES OF OTHER THAN TEXTILE FABRICS; HEADGEAR OF ALL MATERIALS</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>34.619012</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>3.036699270315076</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>22.455454</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>1.972263876530968</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>40.194244</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>2.87110268391484</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>14.550482</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>2.186341386388188</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>-63.21792875212602</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>24.707171</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>2.167255615129912</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>15.459234</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>1.357785452791974</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>23.895942</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>1.706903685285718</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>12.662524</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>1.902658638891392</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>3.467902499387576</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>28.122826</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>2.466868932983929</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>32.681132</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>2.870385790807893</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>34.941605</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>2.495903042629492</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>10.498003</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>1.577419801854492</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>-46.9172336352497</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>11.007091</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>0.9655164395792589</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>11.850531</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>1.040832851075307</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>13.753257</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>0.9824046718050117</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>9.581982</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>1.439779370211012</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>23.45185008057498</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>255.80446</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>22.43857268443542</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>254.601853</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>22.36169607480426</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>253.902551</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>18.13643504848417</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>122.227132</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>18.36573092431798</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-19.58222726968222</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2308,441 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>59.335639</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>12.59402283436988</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>36.732365</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>11.01700894466543</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>48.298485</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>12.15899124394513</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>33.440145</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>13.18777742054463</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>27.58527411352178</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>52.381758</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>11.11805767114831</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>28.797707</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>8.637194898963196</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>23.175241</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>5.834293816779517</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>26.873557</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>10.59811457798161</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>19.20340701852346</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES OF THE MOTOR VEHICLES OF GROUPS 722, 781, 782 AND 783</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D59" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E59" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>0.05938334359851707</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>2.664325</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>0.670735414289374</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>25.479842</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>10.04847571703546</v>
+      </c>
+      <c r="K59" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>PERFUMERY, COSMETICS OR TOILET PREPARATIONS (EXCLUDING SOAPS)</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>29.534775</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>6.268772647042304</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>29.83211</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>8.94743974988387</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>46.620278</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>11.736507925503</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>21.593128</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>8.515673777052401</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>-20.12608411099246</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>848</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL AND CLOTHING ACCESSORIES OF OTHER THAN TEXTILE FABRICS; HEADGEAR OF ALL MATERIALS</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>49.366233</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>10.47801078958337</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>26.896694</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>8.067030761017675</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>22.789423</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>5.737165352320302</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>15.612688</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>6.157169901039844</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>-8.566248189648151</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>057</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>FRUIT AND NUTS (NOT INCLUDING OIL NUTS), FRESH OR DRIED</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>9.319290000000001</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>1.978024557216192</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>12.534802</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>3.759519044134787</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>14.29097</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>3.597706617453582</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>14.914047</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>5.881647112341807</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>28.19684833072997</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>MEDICAMENTS (INCLUDING VETERINARY MEDICAMENTS)</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>8.862429000000001</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>1.881055552363425</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>10.509938</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>3.152208711687339</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>17.77872</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>4.475736678045951</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>14.254252</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>5.621444006069743</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>19.8160913511358</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>048</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>CEREAL PREPARATIONS AND PREPARATIONS OF FLOUR OR STARCH OF FRUITS OR VEGETABLES</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>24.095473</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>5.114277730571719</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>22.989003</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>6.895010753594015</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>21.353341</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>5.375636238858726</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>10.04391</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>3.96101301331027</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>21.30629352690339</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>NON-FERROUS BASE METAL WASTE AND SCRAP, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>0.6653289999999999</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>0.1412164553982215</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>0.607839</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>0.1823070118114227</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>1.761669</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>0.4434946136660307</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>9.791611</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>3.86151395146631</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>873.5263296042506</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>30.524007</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>6.478737696824431</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>20.889525</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>6.26532170675131</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>16.82084</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>4.234593409623553</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>8.150040000000001</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>3.214128212917005</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>-3.413332378927425</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>207.056336</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>43.94782406548215</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>143.427066</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>43.01757507389244</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>181.671149</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>45.73513868951483</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>73.416005</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>28.95304231024092</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-29.16493778510867</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
